--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="11835" windowHeight="6255"/>
+    <workbookView xWindow="9330" yWindow="1590" windowWidth="11835" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>222cc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>333aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>333bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>333ccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -441,6 +453,17 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>333ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111aaZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111bbZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111ccZ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -464,6 +476,17 @@
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
